--- a/プログラム比較表.xlsx
+++ b/プログラム比較表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="12160" windowWidth="30320" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>操作</t>
     <rPh sb="0" eb="2">
@@ -200,6 +200,372 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違う</t>
+    <rPh sb="0" eb="1">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール、バーの変更</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音が鳴り、もう一度動き始める</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールが複数、バーも２種類</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールが同時にたくさん動き、ユーザーがバーを動かせないようになっている</t>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーに当たるとポイントがたまるが、バーに当たらないと地面に当たって跳ね返る</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何回か落ちてゲームオーバー画面になる</t>
+    <rPh sb="0" eb="2">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボールの変更</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール、ポイント３種</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールが勝手に動着続ける</t>
+    <rPh sb="4" eb="6">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了しない</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボールが複数、ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全く動かない</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4.1a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跳ね返り続けられる</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4.1b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール、ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２人用になりキーボードで操作する</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール、バー、ポイントの変更</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バー２つ、ボール２つでボールが落ちないように操作をする、途中からボールが早くなる。片方にはポイントはたまるが、もう片方には入らない</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントがたまっても終わらない</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総評</t>
+    <rPh sb="0" eb="2">
+      <t>ソウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１段目、２段目、３段目、４段目には特に違いはなかった。最も離れているものに関しては１段目より４段目のもののほうが複雑に構成されていた。似ているものは全てほぼスプライトの変更をしているだけだった。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの中にはサンプルように作られているものがあり、複数のスプライトやバーが用意されていた。これをリミックスし利用するように作られているのだろう。</t>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,18 +947,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="121.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -712,10 +1079,235 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/プログラム比較表.xlsx
+++ b/プログラム比較表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="12160" windowWidth="30320" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
   <si>
     <t>操作</t>
     <rPh sb="0" eb="2">
@@ -35,30 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B1.1a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1.1b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2.1a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2.1b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>音</t>
     <rPh sb="0" eb="1">
       <t>オト</t>
@@ -80,13 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタート終了時</t>
-    <rPh sb="4" eb="7">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10000036は</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,10 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B2.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なくなる</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -275,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B2.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バーに当たるとポイントがたまるが、バーに当たらないと地面に当たって跳ね返る</t>
     <rPh sb="3" eb="4">
       <t>ア</t>
@@ -314,10 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B3.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>背景、ボールの変更</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
@@ -328,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B3.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なくなる</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,10 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B3.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,10 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B4.1a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>跳ね返り続けられる</t>
     <rPh sb="0" eb="1">
       <t>ハ</t>
@@ -411,14 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B4.1b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B4.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>背景、ボール、ポイント</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
@@ -430,10 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B4.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２人用になりキーボードで操作する</t>
     <rPh sb="1" eb="2">
       <t>ニン</t>
@@ -566,6 +499,389 @@
     </rPh>
     <rPh sb="65" eb="66">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1段目</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの個数</t>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3段目</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段目</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4段目</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライト数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/48772890/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/118943024/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/44740270/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/23516253/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/11534736/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/71289464/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/44740270/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/48772890/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/136740878/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/19276295/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/14377547/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/10630533/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/31314852/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/20087979/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/97570310/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/90709078/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/73001742/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/97570310/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/33903574/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/134337312/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：最も似ている　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：最も離れている　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>緑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：中間</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/70556576/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール、バーが複数、ポイント3種</t>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの木構造</t>
+    <rPh sb="5" eb="8">
+      <t>キコウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/73001742/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://scratch.mit.edu/projects/70556576/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了時</t>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違う</t>
+    <rPh sb="0" eb="1">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ同じ</t>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し違う</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のボールが一斉に動く</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全く動かない</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たな音が追加</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ボール・バーの色</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア付き</t>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了時に音が鳴る</t>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームが始まらない</t>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,7 +890,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,6 +903,67 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -608,16 +985,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -947,374 +1334,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="121.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>27</v>
+      <c r="A9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>59</v>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A32" r:id="rId1"/>
+    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A22" r:id="rId3"/>
+    <hyperlink ref="A21" r:id="rId4"/>
+    <hyperlink ref="A20" r:id="rId5"/>
+    <hyperlink ref="A18" r:id="rId6"/>
+    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="A47" r:id="rId8"/>
+    <hyperlink ref="A48" r:id="rId9"/>
+    <hyperlink ref="A6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="A8" r:id="rId12"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A12" r:id="rId17"/>
+    <hyperlink ref="A16" r:id="rId18"/>
+    <hyperlink ref="A33" r:id="rId19"/>
+    <hyperlink ref="A35" r:id="rId20"/>
+    <hyperlink ref="A34" r:id="rId21"/>
+    <hyperlink ref="A37" r:id="rId22"/>
+    <hyperlink ref="A38" r:id="rId23"/>
+    <hyperlink ref="A39" r:id="rId24"/>
+    <hyperlink ref="A40" r:id="rId25"/>
+    <hyperlink ref="A42" r:id="rId26"/>
+    <hyperlink ref="A43" r:id="rId27"/>
+    <hyperlink ref="A44" r:id="rId28"/>
+    <hyperlink ref="A46" r:id="rId29"/>
+    <hyperlink ref="A49" r:id="rId30"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
